--- a/save/新建 Microsoft Excel 工作表.xlsx
+++ b/save/新建 Microsoft Excel 工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\file\Project\Deng\code\segmentation\ViT\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE6C46-265D-449C-94F6-130A109E2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14A05B-01D9-4B63-9E72-6A949397AABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15144" yWindow="1956" windowWidth="16296" windowHeight="8736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Dice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,13 +70,21 @@
   </si>
   <si>
     <t>Jaccard</t>
+  </si>
+  <si>
+    <t>ViT+Unet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +94,28 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -112,11 +142,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H8"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -583,9 +616,315 @@
         <v>0.93982117800326781</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.94364191503761297</v>
+      </c>
+      <c r="D9">
+        <v>0.99401144333827596</v>
+      </c>
+      <c r="E9">
+        <v>0.91974882520930201</v>
+      </c>
+      <c r="F9">
+        <v>0.99829285618111496</v>
+      </c>
+      <c r="G9">
+        <v>0.96880949520673898</v>
+      </c>
+      <c r="H9">
+        <v>0.89329738511010703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.58399595977218099</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.974968257703279</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.42637664454665902</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.998546132911864</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.92649468717766903</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.41242534850255602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0.96986678903060797</v>
+      </c>
+      <c r="D11">
+        <v>0.99482108668277103</v>
+      </c>
+      <c r="E11">
+        <v>0.95328283640107703</v>
+      </c>
+      <c r="F11">
+        <v>0.99880064520592904</v>
+      </c>
+      <c r="G11">
+        <v>0.987037968759784</v>
+      </c>
+      <c r="H11">
+        <v>0.94149647705998096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.95122541137088501</v>
+      </c>
+      <c r="D12">
+        <v>0.98960612036965101</v>
+      </c>
+      <c r="E12">
+        <v>0.929712225037575</v>
+      </c>
+      <c r="F12">
+        <v>0.99693439055742605</v>
+      </c>
+      <c r="G12">
+        <v>0.97375779540452201</v>
+      </c>
+      <c r="H12">
+        <v>0.906987470600228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0.93804224333112496</v>
+      </c>
+      <c r="D13">
+        <v>0.99294051503747405</v>
+      </c>
+      <c r="E13">
+        <v>0.91170886980066901</v>
+      </c>
+      <c r="F13">
+        <v>0.99799843353659401</v>
+      </c>
+      <c r="G13">
+        <v>0.96594206310712505</v>
+      </c>
+      <c r="H13">
+        <v>0.88331408423727997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(C9,C11,C12,C13)</f>
+        <v>0.95069408969255764</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(D9,D11,D12,D13)</f>
+        <v>0.99284479135704296</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:H14" si="1">AVERAGE(E9,E11,E12,E13)</f>
+        <v>0.92861318911215585</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.99800658137026599</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(G9,G11,G12,G13)</f>
+        <v>0.97388683061954251</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGE(H9,H11,H12,H13)</f>
+        <v>0.9062738542518991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.96604053582163896</v>
+      </c>
+      <c r="D15">
+        <v>0.99633143860616802</v>
+      </c>
+      <c r="E15">
+        <v>0.957252248709906</v>
+      </c>
+      <c r="F15">
+        <v>0.99858444489279696</v>
+      </c>
+      <c r="G15">
+        <v>0.97499168413352599</v>
+      </c>
+      <c r="H15">
+        <v>0.93431180746383602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.93057511258570202</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.99437107000135805</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.91548689443547104</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.99776142669439705</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.94616900523910297</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.87016406999408802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0.95073858110415899</v>
+      </c>
+      <c r="D17">
+        <v>0.991423155132092</v>
+      </c>
+      <c r="E17">
+        <v>0.94666912231377698</v>
+      </c>
+      <c r="F17">
+        <v>0.99571080065255402</v>
+      </c>
+      <c r="G17">
+        <v>0.95484317781166705</v>
+      </c>
+      <c r="H17">
+        <v>0.90610267754266904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0.95517493876663495</v>
+      </c>
+      <c r="D18">
+        <v>0.99027703025124203</v>
+      </c>
+      <c r="E18">
+        <v>0.95025900183949497</v>
+      </c>
+      <c r="F18">
+        <v>0.99517340446359703</v>
+      </c>
+      <c r="G18">
+        <v>0.96014200302818697</v>
+      </c>
+      <c r="H18">
+        <v>0.91419604506684804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.93965499931894103</v>
+      </c>
+      <c r="D19">
+        <v>0.99310259315056504</v>
+      </c>
+      <c r="E19">
+        <v>0.91615599268940795</v>
+      </c>
+      <c r="F19">
+        <v>0.99789370174847702</v>
+      </c>
+      <c r="G19">
+        <v>0.96439121872050004</v>
+      </c>
+      <c r="H19">
+        <v>0.886178553880974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C15:C19)</f>
+        <v>0.9484368335194151</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D15:D19)</f>
+        <v>0.99310105742828514</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:H20" si="2">AVERAGE(E15:E19)</f>
+        <v>0.93716465199761134</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.99702475569036442</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.96010741778659658</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(H15:H19)</f>
+        <v>0.90219063078968298</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/save/新建 Microsoft Excel 工作表.xlsx
+++ b/save/新建 Microsoft Excel 工作表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\file\Project\Deng\code\segmentation\ViT\save\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhx/Documents/file/project/Deng/ViT/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14A05B-01D9-4B63-9E72-6A949397AABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F494D-8E24-4F48-A158-A896B6C6C7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15144" yWindow="1956" windowWidth="16296" windowHeight="8736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13940" yWindow="1960" windowWidth="16300" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Dice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +88,10 @@
   </si>
   <si>
     <t>ViT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDenseUNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,12 +159,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,21 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H21:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -464,8 +479,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -490,8 +505,8 @@
         <v>0.94818513813163896</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -514,8 +529,8 @@
         <v>0.94035364888259199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -538,8 +553,8 @@
         <v>0.95931537268231204</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -562,8 +577,8 @@
         <v>0.94219538754693899</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -586,8 +601,8 @@
         <v>0.90905634277285696</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -616,8 +631,8 @@
         <v>0.93982117800326781</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -642,32 +657,32 @@
         <v>0.89329738511010703</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.58399595977218099</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.974968257703279</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.42637664454665902</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.998546132911864</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.92649468717766903</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.41242534850255602</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -690,8 +705,8 @@
         <v>0.94149647705998096</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -714,8 +729,8 @@
         <v>0.906987470600228</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -738,8 +753,8 @@
         <v>0.88331408423727997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -752,7 +767,7 @@
         <v>0.99284479135704296</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:H14" si="1">AVERAGE(E9,E11,E12,E13)</f>
+        <f t="shared" ref="E14:F14" si="1">AVERAGE(E9,E11,E12,E13)</f>
         <v>0.92861318911215585</v>
       </c>
       <c r="F14">
@@ -768,8 +783,8 @@
         <v>0.9062738542518991</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -794,32 +809,32 @@
         <v>0.93431180746383602</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.93057511258570202</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.99437107000135805</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.91548689443547104</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.99776142669439705</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.94616900523910297</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.87016406999408802</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -842,8 +857,8 @@
         <v>0.90610267754266904</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -866,8 +881,8 @@
         <v>0.91419604506684804</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -890,8 +905,8 @@
         <v>0.886178553880974</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -904,7 +919,7 @@
         <v>0.99310105742828514</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:H20" si="2">AVERAGE(E15:E19)</f>
+        <f t="shared" ref="E20:G20" si="2">AVERAGE(E15:E19)</f>
         <v>0.93716465199761134</v>
       </c>
       <c r="F20">
@@ -920,13 +935,167 @@
         <v>0.90219063078968298</v>
       </c>
     </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.959962172624235</v>
+      </c>
+      <c r="D21">
+        <v>0.99559750969027205</v>
+      </c>
+      <c r="E21">
+        <v>0.96822905011921201</v>
+      </c>
+      <c r="F21">
+        <v>0.99717536510722105</v>
+      </c>
+      <c r="G21">
+        <v>0.951835267577263</v>
+      </c>
+      <c r="H21">
+        <v>0.92300697854964797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.96566487369311604</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.99715394902050003</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.97122643413635401</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.99826828561575698</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.96016664522040296</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.93360928110478103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0.96061205037924202</v>
+      </c>
+      <c r="D23">
+        <v>0.99305223163805501</v>
+      </c>
+      <c r="E23">
+        <v>0.96905057378518</v>
+      </c>
+      <c r="F23">
+        <v>0.99535170264198602</v>
+      </c>
+      <c r="G23">
+        <v>0.95231922410088699</v>
+      </c>
+      <c r="H23">
+        <v>0.92420933947648698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0.95959088804131798</v>
+      </c>
+      <c r="D24">
+        <v>0.99128489060835401</v>
+      </c>
+      <c r="E24">
+        <v>0.94920645271821702</v>
+      </c>
+      <c r="F24">
+        <v>0.99643336459267295</v>
+      </c>
+      <c r="G24">
+        <v>0.97020505060688</v>
+      </c>
+      <c r="H24">
+        <v>0.92232072654036401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0.95302301739822404</v>
+      </c>
+      <c r="D25">
+        <v>0.99450587450973305</v>
+      </c>
+      <c r="E25">
+        <v>0.95076524376320704</v>
+      </c>
+      <c r="F25">
+        <v>0.99722940109556901</v>
+      </c>
+      <c r="G25">
+        <v>0.95529153958602697</v>
+      </c>
+      <c r="H25">
+        <v>0.910261670728849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(C21:C25)</f>
+        <v>0.95977060042722706</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(D21:D25)</f>
+        <v>0.9943188910933829</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:G26" si="3">AVERAGE(E21:E25)</f>
+        <v>0.96169555090443404</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.99689162381064134</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.95796354541829198</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(H21:H25)</f>
+        <v>0.92268159928002569</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/save/新建 Microsoft Excel 工作表.xlsx
+++ b/save/新建 Microsoft Excel 工作表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\file\Project\Deng\code\segmentation\ViT\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14A05B-01D9-4B63-9E72-6A949397AABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C297A-3974-4E3B-A928-E0BEE5BFA824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15144" yWindow="1956" windowWidth="16296" windowHeight="8736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="1476" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>Dice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>ViT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNETR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swin_UNETR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,12 +152,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,7 +473,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -491,7 +499,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -515,7 +523,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -539,7 +547,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -563,7 +571,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -587,7 +595,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -617,7 +625,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -643,31 +651,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.58399595977218099</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.974968257703279</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.42637664454665902</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.998546132911864</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.92649468717766903</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.41242534850255602</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -691,7 +699,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -715,7 +723,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -739,7 +747,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -752,7 +760,7 @@
         <v>0.99284479135704296</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:H14" si="1">AVERAGE(E9,E11,E12,E13)</f>
+        <f t="shared" ref="E14:F14" si="1">AVERAGE(E9,E11,E12,E13)</f>
         <v>0.92861318911215585</v>
       </c>
       <c r="F14">
@@ -769,7 +777,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -795,31 +803,31 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.93057511258570202</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.99437107000135805</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.91548689443547104</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.99776142669439705</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.94616900523910297</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.87016406999408802</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -843,7 +851,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -867,7 +875,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -891,7 +899,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -904,7 +912,7 @@
         <v>0.99310105742828514</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:H20" si="2">AVERAGE(E15:E19)</f>
+        <f t="shared" ref="E20:G20" si="2">AVERAGE(E15:E19)</f>
         <v>0.93716465199761134</v>
       </c>
       <c r="F20">
@@ -920,11 +928,317 @@
         <v>0.90219063078968298</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.96319661857101502</v>
+      </c>
+      <c r="D21">
+        <v>0.99603549345039999</v>
+      </c>
+      <c r="E21">
+        <v>0.951727129070983</v>
+      </c>
+      <c r="F21">
+        <v>0.99858997382122106</v>
+      </c>
+      <c r="G21">
+        <v>0.97494592326859297</v>
+      </c>
+      <c r="H21">
+        <v>0.92900605440027395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.929967940308844</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.99412403250099102</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.9467612990159</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.99615963164770105</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.91375994932142401</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.86910287583062196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0.97126090504720297</v>
+      </c>
+      <c r="D23">
+        <v>0.99507193314401698</v>
+      </c>
+      <c r="E23">
+        <v>0.95248000499659102</v>
+      </c>
+      <c r="F23">
+        <v>0.99915243893151295</v>
+      </c>
+      <c r="G23">
+        <v>0.99079734230332495</v>
+      </c>
+      <c r="H23">
+        <v>0.94412753419400897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0.948869988247386</v>
+      </c>
+      <c r="D24">
+        <v>0.98917492953213704</v>
+      </c>
+      <c r="E24">
+        <v>0.92138806058542599</v>
+      </c>
+      <c r="F24">
+        <v>0.99746893826326699</v>
+      </c>
+      <c r="G24">
+        <v>0.97804170484764996</v>
+      </c>
+      <c r="H24">
+        <v>0.90271420056298002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0.94917994880555201</v>
+      </c>
+      <c r="D25">
+        <v>0.99416524995633204</v>
+      </c>
+      <c r="E25">
+        <v>0.92959154194743698</v>
+      </c>
+      <c r="F25">
+        <v>0.99818595581969005</v>
+      </c>
+      <c r="G25">
+        <v>0.96961166195120996</v>
+      </c>
+      <c r="H25">
+        <v>0.90327544447419905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(C21:C25)</f>
+        <v>0.95249508019599993</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(D21:D25)</f>
+        <v>0.99371432771677548</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:G26" si="3">AVERAGE(E21:E25)</f>
+        <v>0.94038960712326725</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.99791138769667853</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.96543131633844026</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(H21:H25)</f>
+        <v>0.9096452218924167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.97294903941654498</v>
+      </c>
+      <c r="D27">
+        <v>0.99705368795512594</v>
+      </c>
+      <c r="E27">
+        <v>0.97203572363431701</v>
+      </c>
+      <c r="F27">
+        <v>0.99849603184817204</v>
+      </c>
+      <c r="G27">
+        <v>0.97386407309734702</v>
+      </c>
+      <c r="H27">
+        <v>0.94732304116925803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.927870462454637</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.99374993403155099</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.97554843748008402</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.994532214700799</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.88463566691411999</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.86544622637550594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0.97963881663723695</v>
+      </c>
+      <c r="D29">
+        <v>0.99647036100688702</v>
+      </c>
+      <c r="E29">
+        <v>0.97120232729205502</v>
+      </c>
+      <c r="F29">
+        <v>0.99889115673732698</v>
+      </c>
+      <c r="G29">
+        <v>0.98822315990332299</v>
+      </c>
+      <c r="H29">
+        <v>0.96009024315119096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.96490246089207699</v>
+      </c>
+      <c r="D30">
+        <v>0.99245708638971497</v>
+      </c>
+      <c r="E30">
+        <v>0.95110159783042403</v>
+      </c>
+      <c r="F30">
+        <v>0.99751710448050401</v>
+      </c>
+      <c r="G30">
+        <v>0.97910973315369199</v>
+      </c>
+      <c r="H30">
+        <v>0.93218505931651796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0.95124384154026698</v>
+      </c>
+      <c r="D31">
+        <v>0.99437450005756101</v>
+      </c>
+      <c r="E31">
+        <v>0.93622439531248502</v>
+      </c>
+      <c r="F31">
+        <v>0.99799523788278899</v>
+      </c>
+      <c r="G31">
+        <v>0.96675304580664101</v>
+      </c>
+      <c r="H31">
+        <v>0.90702098277719201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C27:C31)</f>
+        <v>0.9593209241881524</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(D27:D31)</f>
+        <v>0.99482111388816796</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:G32" si="4">AVERAGE(E27:E31)</f>
+        <v>0.96122249630987311</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0.99748634912991818</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0.95851713577502462</v>
+      </c>
+      <c r="H32">
+        <f>AVERAGE(H27:H31)</f>
+        <v>0.92241311055793296</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/save/新建 Microsoft Excel 工作表.xlsx
+++ b/save/新建 Microsoft Excel 工作表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\file\Project\Deng\code\segmentation\ViT\save\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhx/Documents/file/project/Deng/ViT/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C297A-3974-4E3B-A928-E0BEE5BFA824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12816111-AD85-DF45-930E-03A39740AB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="1476" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="1480" windowWidth="23040" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Dice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +96,22 @@
   </si>
   <si>
     <t>swin_UNETR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tumor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNETRpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,21 +465,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H32"/>
+  <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:H31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34:N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -471,8 +499,11 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -497,8 +528,23 @@
       <c r="H3">
         <v>0.94818513813163896</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.76424251813459099</v>
+      </c>
+      <c r="N3">
+        <v>9.1817257185849797E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>2</v>
@@ -521,8 +567,21 @@
       <c r="H4">
         <v>0.94035364888259199</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.87679108314864995</v>
+      </c>
+      <c r="N4">
+        <v>0.371395281095251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>3</v>
@@ -545,8 +604,17 @@
       <c r="H5">
         <v>0.95931537268231204</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0.57368808051812004</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>4</v>
@@ -569,8 +637,17 @@
       <c r="H6">
         <v>0.94219538754693899</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>0.81860719042399499</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -593,8 +670,17 @@
       <c r="H7">
         <v>0.90905634277285696</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0.68464848553046398</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -623,8 +709,17 @@
         <f t="shared" si="0"/>
         <v>0.93982117800326781</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0.72379502611834501</v>
+      </c>
+      <c r="N8">
+        <v>0.42686400942596803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -649,8 +744,17 @@
       <c r="H9">
         <v>0.89329738511010703</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>0.67082559065569403</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -673,8 +777,17 @@
       <c r="H10" s="2">
         <v>0.41242534850255602</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>0.66801899380619301</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>3</v>
@@ -697,8 +810,17 @@
       <c r="H11">
         <v>0.94149647705998096</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>0.43100772976567497</v>
+      </c>
+      <c r="N11">
+        <v>6.18600682593856E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>4</v>
@@ -721,8 +843,17 @@
       <c r="H12">
         <v>0.906987470600228</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>0.969725400957684</v>
+      </c>
+      <c r="N12">
+        <v>0.82040980313378797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>5</v>
@@ -745,8 +876,17 @@
       <c r="H13">
         <v>0.88331408423727997</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>0.81793737238659603</v>
+      </c>
+      <c r="N13">
+        <v>0.59230420139966999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>7</v>
@@ -775,8 +915,17 @@
         <f>AVERAGE(H9,H11,H12,H13)</f>
         <v>0.9062738542518991</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>0.71076911295602596</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -801,8 +950,17 @@
       <c r="H15">
         <v>0.93431180746383602</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>0.76855023793732002</v>
+      </c>
+      <c r="N15">
+        <v>0.16787565828569001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -825,8 +983,17 @@
       <c r="H16" s="3">
         <v>0.87016406999408802</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>0.89635336990909398</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>3</v>
@@ -849,8 +1016,17 @@
       <c r="H17">
         <v>0.90610267754266904</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>0.90492291815235404</v>
+      </c>
+      <c r="N17">
+        <v>0.388265326914008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>4</v>
@@ -873,8 +1049,17 @@
       <c r="H18">
         <v>0.91419604506684804</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>0.90019601222583401</v>
+      </c>
+      <c r="N18">
+        <v>5.7577403585008097E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>5</v>
@@ -897,8 +1082,17 @@
       <c r="H19">
         <v>0.886178553880974</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>0.97224861208959401</v>
+      </c>
+      <c r="N19">
+        <v>0.105419892793329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>7</v>
@@ -927,8 +1121,17 @@
         <f>AVERAGE(H15:H19)</f>
         <v>0.90219063078968298</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>0.96763034340074106</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -953,8 +1156,17 @@
       <c r="H21">
         <v>0.92900605440027395</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>0.96053530591106695</v>
+      </c>
+      <c r="N21">
+        <v>0.60412324548821605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -977,8 +1189,17 @@
       <c r="H22" s="3">
         <v>0.86910287583062196</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>0.91726770983960804</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>3</v>
@@ -1001,8 +1222,17 @@
       <c r="H23">
         <v>0.94412753419400897</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>0.95910521090233203</v>
+      </c>
+      <c r="N23">
+        <v>0.56796333371940999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>4</v>
@@ -1025,8 +1255,17 @@
       <c r="H24">
         <v>0.90271420056298002</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>0.95269259721479305</v>
+      </c>
+      <c r="N24">
+        <v>0.60923173278769804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>5</v>
@@ -1049,8 +1288,17 @@
       <c r="H25">
         <v>0.90327544447419905</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>0.98438520457878298</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>7</v>
@@ -1079,8 +1327,17 @@
         <f>AVERAGE(H21:H25)</f>
         <v>0.9096452218924167</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>0.96779435687076698</v>
+      </c>
+      <c r="N26">
+        <v>0.160905091137649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1105,8 +1362,17 @@
       <c r="H27">
         <v>0.94732304116925803</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>0.94588910156760297</v>
+      </c>
+      <c r="N27">
+        <v>0.69734437389438797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -1129,8 +1395,17 @@
       <c r="H28" s="3">
         <v>0.86544622637550594</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>0.918978517104171</v>
+      </c>
+      <c r="N28">
+        <v>0.394413143788167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>3</v>
@@ -1153,8 +1428,17 @@
       <c r="H29">
         <v>0.96009024315119096</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <v>0.88395038187782804</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>4</v>
@@ -1177,8 +1461,17 @@
       <c r="H30">
         <v>0.93218505931651796</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>0.95045611285704301</v>
+      </c>
+      <c r="N30">
+        <v>0.35214729999505001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>5</v>
@@ -1201,8 +1494,17 @@
       <c r="H31">
         <v>0.90702098277719201</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>0.94686222939098297</v>
+      </c>
+      <c r="N31">
+        <v>0.83657436796099405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>7</v>
@@ -1231,9 +1533,43 @@
         <f>AVERAGE(H27:H31)</f>
         <v>0.92241311055793296</v>
       </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>0.93218507155613595</v>
+      </c>
+      <c r="N32">
+        <v>0.76464454010145899</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14">
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>0.97756776123837597</v>
+      </c>
+      <c r="N33">
+        <v>0.19744853580748001</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14">
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34">
+        <f>AVERAGE(M3:M33)</f>
+        <v>0.85218153674278907</v>
+      </c>
+      <c r="N34">
+        <f>AVERAGE(N3:N33)</f>
+        <v>0.26406287210616752</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>

--- a/save/新建 Microsoft Excel 工作表.xlsx
+++ b/save/新建 Microsoft Excel 工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhx/Documents/file/project/Deng/ViT/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12816111-AD85-DF45-930E-03A39740AB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9396BC91-9540-3C47-9253-8344D59CE929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="1480" windowWidth="23040" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3620" yWindow="10640" windowWidth="23040" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Dice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,7 +111,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UNETRpp</t>
+    <t>是否有肿瘤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N34"/>
+  <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34:N34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="136" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -478,9 +478,10 @@
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -500,10 +501,16 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -528,12 +535,7 @@
       <c r="H3">
         <v>0.94818513813163896</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
+      <c r="J3" s="4"/>
       <c r="L3">
         <v>0</v>
       </c>
@@ -543,8 +545,11 @@
       <c r="N3">
         <v>9.1817257185849797E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>2</v>
@@ -568,9 +573,6 @@
         <v>0.94035364888259199</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
       <c r="L4">
         <v>1</v>
       </c>
@@ -580,8 +582,11 @@
       <c r="N4">
         <v>0.371395281095251</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>3</v>
@@ -613,8 +618,11 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>4</v>
@@ -646,8 +654,11 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -679,8 +690,11 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -718,8 +732,11 @@
       <c r="N8">
         <v>0.42686400942596803</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -753,8 +770,11 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -786,8 +806,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>3</v>
@@ -819,8 +842,11 @@
       <c r="N11">
         <v>6.18600682593856E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>4</v>
@@ -852,8 +878,11 @@
       <c r="N12">
         <v>0.82040980313378797</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>5</v>
@@ -885,8 +914,11 @@
       <c r="N13">
         <v>0.59230420139966999</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>7</v>
@@ -924,8 +956,11 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -959,8 +994,11 @@
       <c r="N15">
         <v>0.16787565828569001</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -992,8 +1030,11 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>3</v>
@@ -1025,8 +1066,11 @@
       <c r="N17">
         <v>0.388265326914008</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>4</v>
@@ -1058,8 +1102,11 @@
       <c r="N18">
         <v>5.7577403585008097E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>5</v>
@@ -1091,8 +1138,11 @@
       <c r="N19">
         <v>0.105419892793329</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>7</v>
@@ -1130,8 +1180,11 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1165,8 +1218,11 @@
       <c r="N21">
         <v>0.60412324548821605</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -1198,8 +1254,11 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>3</v>
@@ -1231,8 +1290,11 @@
       <c r="N23">
         <v>0.56796333371940999</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>4</v>
@@ -1264,8 +1326,11 @@
       <c r="N24">
         <v>0.60923173278769804</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>5</v>
@@ -1297,8 +1362,11 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>7</v>
@@ -1336,8 +1404,11 @@
       <c r="N26">
         <v>0.160905091137649</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1371,8 +1442,11 @@
       <c r="N27">
         <v>0.69734437389438797</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -1404,8 +1478,11 @@
       <c r="N28">
         <v>0.394413143788167</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>3</v>
@@ -1437,8 +1514,11 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>4</v>
@@ -1470,8 +1550,11 @@
       <c r="N30">
         <v>0.35214729999505001</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>5</v>
@@ -1503,8 +1586,11 @@
       <c r="N31">
         <v>0.83657436796099405</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>7</v>
@@ -1542,8 +1628,11 @@
       <c r="N32">
         <v>0.76464454010145899</v>
       </c>
-    </row>
-    <row r="33" spans="12:14">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15">
       <c r="L33">
         <v>30</v>
       </c>
@@ -1553,8 +1642,11 @@
       <c r="N33">
         <v>0.19744853580748001</v>
       </c>
-    </row>
-    <row r="34" spans="12:14">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15">
       <c r="L34" t="s">
         <v>17</v>
       </c>
@@ -1569,12 +1661,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A27:A32"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/save/新建 Microsoft Excel 工作表.xlsx
+++ b/save/新建 Microsoft Excel 工作表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhx/Documents/file/project/Deng/ViT/save/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\file\Project\Deng\code\segmentation\ViT\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12816111-AD85-DF45-930E-03A39740AB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0B07EF-A524-4E91-894D-7F49960E8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="1480" windowWidth="23040" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7476" yWindow="3564" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -119,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,22 +454,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N34"/>
+  <dimension ref="A2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34:N34"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -503,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -543,8 +532,14 @@
       <c r="N3">
         <v>9.1817257185849797E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>0.83652306579289204</v>
+      </c>
+      <c r="P3">
+        <v>1.32922205091878E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>2</v>
@@ -580,8 +575,14 @@
       <c r="N4">
         <v>0.371395281095251</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>0.94314166985501702</v>
+      </c>
+      <c r="P4">
+        <v>0.68107789721690404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>3</v>
@@ -613,8 +614,14 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>0.300581454955548</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>4</v>
@@ -646,8 +653,14 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>0.80780124841284595</v>
+      </c>
+      <c r="P6">
+        <v>1.7404263246134598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -679,8 +692,14 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>0.82550865139557095</v>
+      </c>
+      <c r="P7">
+        <v>0.42939481268011498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -718,8 +737,14 @@
       <c r="N8">
         <v>0.42686400942596803</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>0.80362450067165303</v>
+      </c>
+      <c r="P8">
+        <v>0.80584424329427795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -753,8 +778,14 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>0.73761053435206203</v>
+      </c>
+      <c r="P9">
+        <v>0.12794742945496701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -786,8 +817,14 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0.62816021859900695</v>
+      </c>
+      <c r="P10">
+        <v>3.5362829026322103E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>3</v>
@@ -819,8 +856,14 @@
       <c r="N11">
         <v>6.18600682593856E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>0.62900897319286198</v>
+      </c>
+      <c r="P11">
+        <v>0.21811424100156401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>4</v>
@@ -852,8 +895,14 @@
       <c r="N12">
         <v>0.82040980313378797</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>0.97750808757615604</v>
+      </c>
+      <c r="P12">
+        <v>0.86575313970722001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>5</v>
@@ -885,8 +934,14 @@
       <c r="N13">
         <v>0.59230420139966999</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>0.90153354497151905</v>
+      </c>
+      <c r="P13">
+        <v>0.74584967666701996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>7</v>
@@ -924,8 +979,14 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>0.899972158963663</v>
+      </c>
+      <c r="P14">
+        <v>0.865306926790816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -959,8 +1020,14 @@
       <c r="N15">
         <v>0.16787565828569001</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>0.84290687952384002</v>
+      </c>
+      <c r="P15">
+        <v>0.75729282735007697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -992,8 +1059,14 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>0.94251909923176902</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>3</v>
@@ -1025,8 +1098,14 @@
       <c r="N17">
         <v>0.388265326914008</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>0.94508196286952095</v>
+      </c>
+      <c r="P17">
+        <v>0.57100980996319095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>4</v>
@@ -1058,8 +1137,14 @@
       <c r="N18">
         <v>5.7577403585008097E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0.894708182585367</v>
+      </c>
+      <c r="P18">
+        <v>0.39064988440791099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>5</v>
@@ -1091,8 +1176,14 @@
       <c r="N19">
         <v>0.105419892793329</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>0.97912915323060001</v>
+      </c>
+      <c r="P19">
+        <v>0.17823272617793101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>7</v>
@@ -1130,8 +1221,14 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>0.97762573744487002</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1165,8 +1262,14 @@
       <c r="N21">
         <v>0.60412324548821605</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>0.96796946546236795</v>
+      </c>
+      <c r="P21">
+        <v>0.78580357181475702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -1198,8 +1301,14 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>0.97349424861671596</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>3</v>
@@ -1231,8 +1340,14 @@
       <c r="N23">
         <v>0.56796333371940999</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>0.98047186986977597</v>
+      </c>
+      <c r="P23">
+        <v>0.86257124762507897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>4</v>
@@ -1264,8 +1379,14 @@
       <c r="N24">
         <v>0.60923173278769804</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>0.96252672823354901</v>
+      </c>
+      <c r="P24">
+        <v>0.71871992005623497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>5</v>
@@ -1297,8 +1418,14 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>0.98679868582699504</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>7</v>
@@ -1336,8 +1463,14 @@
       <c r="N26">
         <v>0.160905091137649</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>0.97539341955851799</v>
+      </c>
+      <c r="P26">
+        <v>0.35304767652383801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1371,8 +1504,14 @@
       <c r="N27">
         <v>0.69734437389438797</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>0.95063051872847903</v>
+      </c>
+      <c r="P27">
+        <v>0.807252046513525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -1404,8 +1543,14 @@
       <c r="N28">
         <v>0.394413143788167</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>0.96712550199727598</v>
+      </c>
+      <c r="P28">
+        <v>0.337930570094087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>3</v>
@@ -1437,8 +1582,14 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>0.89629616381149002</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>4</v>
@@ -1470,8 +1621,14 @@
       <c r="N30">
         <v>0.35214729999505001</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>0.97572958606649096</v>
+      </c>
+      <c r="P30">
+        <v>0.53117797695262403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>5</v>
@@ -1503,8 +1660,14 @@
       <c r="N31">
         <v>0.83657436796099405</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>0.95942299559336197</v>
+      </c>
+      <c r="P31">
+        <v>0.89113149317912099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>7</v>
@@ -1542,8 +1705,14 @@
       <c r="N32">
         <v>0.76464454010145899</v>
       </c>
-    </row>
-    <row r="33" spans="12:14">
+      <c r="O32">
+        <v>0.956593592469829</v>
+      </c>
+      <c r="P32">
+        <v>0.896963588832843</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L33">
         <v>30</v>
       </c>
@@ -1554,7 +1723,7 @@
         <v>0.19744853580748001</v>
       </c>
     </row>
-    <row r="34" spans="12:14">
+    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>17</v>
       </c>
@@ -1569,12 +1738,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A27:A32"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/save/新建 Microsoft Excel 工作表.xlsx
+++ b/save/新建 Microsoft Excel 工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\file\Project\Deng\code\segmentation\ViT\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0B07EF-A524-4E91-894D-7F49960E8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7706342-9D2F-4DE8-A74A-CA5FF52CF7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7476" yWindow="3564" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="18120" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Dice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>UNETRpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>norm40x6 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>norm40x6 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,13 +178,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P34"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,9 +482,10 @@
     <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -491,8 +507,20 @@
       <c r="M2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="V2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -532,14 +560,26 @@
       <c r="N3">
         <v>9.1817257185849797E-3</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.83652306579289204</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1.32922205091878E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>0.83452600961717505</v>
+      </c>
+      <c r="T3">
+        <v>2.0043554852759601E-2</v>
+      </c>
+      <c r="V3">
+        <v>0.82652248575786003</v>
+      </c>
+      <c r="W3">
+        <v>4.3546432410596199E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>2</v>
@@ -575,14 +615,26 @@
       <c r="N4">
         <v>0.371395281095251</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.94314166985501702</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.68107789721690404</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0.93065181832820498</v>
+      </c>
+      <c r="T4">
+        <v>0.56434944476538895</v>
+      </c>
+      <c r="V4">
+        <v>0.90348466987820097</v>
+      </c>
+      <c r="W4">
+        <v>0.44102992927075702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>3</v>
@@ -614,14 +666,26 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.300581454955548</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.55176965469776396</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.52304145374009403</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>4</v>
@@ -653,14 +717,26 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.80780124841284595</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.7404263246134598E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0.78530042356179197</v>
+      </c>
+      <c r="T6">
+        <v>6.4388045286258499E-3</v>
+      </c>
+      <c r="V6">
+        <v>0.66917861331071904</v>
+      </c>
+      <c r="W6">
+        <v>1.3833622646548201E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -692,14 +768,26 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.82550865139557095</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.42939481268011498</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0.79816236009000097</v>
+      </c>
+      <c r="T7">
+        <v>0.45444319460067401</v>
+      </c>
+      <c r="V7">
+        <v>0.77863604957964805</v>
+      </c>
+      <c r="W7">
+        <v>0.55751295336787499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -737,14 +825,26 @@
       <c r="N8">
         <v>0.42686400942596803</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.80362450067165303</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.80584424329427795</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0.81511784068695503</v>
+      </c>
+      <c r="T8">
+        <v>0.75032674880295303</v>
+      </c>
+      <c r="V8">
+        <v>0.83001390410563303</v>
+      </c>
+      <c r="W8">
+        <v>0.76966578510215899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -778,14 +878,26 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.73761053435206203</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.12794742945496701</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0.714756858411846</v>
+      </c>
+      <c r="T9">
+        <v>0.13274149228492901</v>
+      </c>
+      <c r="V9">
+        <v>0.73694911479120295</v>
+      </c>
+      <c r="W9">
+        <v>8.2940251572326998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -817,14 +929,26 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.62816021859900695</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3.5362829026322103E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>0.72113197597101797</v>
+      </c>
+      <c r="T10">
+        <v>9.0901712523334104E-3</v>
+      </c>
+      <c r="V10">
+        <v>0.69329403783463805</v>
+      </c>
+      <c r="W10">
+        <v>8.7669453689422795E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>3</v>
@@ -856,14 +980,26 @@
       <c r="N11">
         <v>6.18600682593856E-2</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.62900897319286198</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.21811424100156401</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0.69734971293066494</v>
+      </c>
+      <c r="T11">
+        <v>0.30568895456224598</v>
+      </c>
+      <c r="V11">
+        <v>0.70182471485461095</v>
+      </c>
+      <c r="W11">
+        <v>0.37724447513812098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>4</v>
@@ -895,14 +1031,26 @@
       <c r="N12">
         <v>0.82040980313378797</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.97750808757615604</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.86575313970722001</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>0.97700005202956497</v>
+      </c>
+      <c r="T12">
+        <v>0.86284031616469403</v>
+      </c>
+      <c r="V12">
+        <v>0.97655326795131703</v>
+      </c>
+      <c r="W12">
+        <v>0.85938615274803698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>5</v>
@@ -934,14 +1082,26 @@
       <c r="N13">
         <v>0.59230420139966999</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.90153354497151905</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.74584967666701996</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>0.91850804955704601</v>
+      </c>
+      <c r="T13">
+        <v>0.65487627697526996</v>
+      </c>
+      <c r="V13">
+        <v>0.91557677827262096</v>
+      </c>
+      <c r="W13">
+        <v>0.65854047042939301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>7</v>
@@ -979,14 +1139,26 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.899972158963663</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.865306926790816</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>0.88973067628679803</v>
+      </c>
+      <c r="T14">
+        <v>0.85364294844482302</v>
+      </c>
+      <c r="V14">
+        <v>0.81669916448498803</v>
+      </c>
+      <c r="W14">
+        <v>0.85419248244527002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1020,14 +1192,20 @@
       <c r="N15">
         <v>0.16787565828569001</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.84290687952384002</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.75729282735007697</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>0.83949090276790095</v>
+      </c>
+      <c r="T15">
+        <v>0.81129997158659595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -1059,14 +1237,20 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.94251909923176902</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.93181809933102899</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>3</v>
@@ -1098,14 +1282,20 @@
       <c r="N17">
         <v>0.388265326914008</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.94508196286952095</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.57100980996319095</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>0.94336212296838695</v>
+      </c>
+      <c r="T17">
+        <v>0.53415504653566304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>4</v>
@@ -1137,14 +1327,20 @@
       <c r="N18">
         <v>5.7577403585008097E-2</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.894708182585367</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.39064988440791099</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>0.89598882544617298</v>
+      </c>
+      <c r="T18">
+        <v>0.30063360279659102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>5</v>
@@ -1176,14 +1372,20 @@
       <c r="N19">
         <v>0.105419892793329</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.97912915323060001</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.17823272617793101</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>0.97879486307163599</v>
+      </c>
+      <c r="T19">
+        <v>4.5858227030518298E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>7</v>
@@ -1221,14 +1423,20 @@
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.97762573744487002</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.97732560635329402</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1262,14 +1470,20 @@
       <c r="N21">
         <v>0.60412324548821605</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.96796946546236795</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.78580357181475702</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>0.96336427706541605</v>
+      </c>
+      <c r="T21">
+        <v>0.77688237866200205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -1301,14 +1515,20 @@
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.97349424861671596</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.97276286752377406</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>3</v>
@@ -1340,14 +1560,20 @@
       <c r="N23">
         <v>0.56796333371940999</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.98047186986977597</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.86257124762507897</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>0.98061236155879605</v>
+      </c>
+      <c r="T23">
+        <v>0.86368395337474702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>4</v>
@@ -1379,14 +1605,20 @@
       <c r="N24">
         <v>0.60923173278769804</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.96252672823354901</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.71871992005623497</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>0.96276472061174501</v>
+      </c>
+      <c r="T24">
+        <v>0.73741021849528898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>5</v>
@@ -1418,14 +1650,20 @@
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.98679868582699504</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.986986789762065</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>7</v>
@@ -1463,14 +1701,20 @@
       <c r="N26">
         <v>0.160905091137649</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.97539341955851799</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.35304767652383801</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>0.97363866683808897</v>
+      </c>
+      <c r="T26">
+        <v>0.22349377314035601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1504,14 +1748,20 @@
       <c r="N27">
         <v>0.69734437389438797</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.95063051872847903</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.807252046513525</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>0.93910994681920201</v>
+      </c>
+      <c r="T27">
+        <v>0.797709109580925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -1543,14 +1793,20 @@
       <c r="N28">
         <v>0.394413143788167</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.96712550199727598</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.337930570094087</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>0.950784530589735</v>
+      </c>
+      <c r="T28">
+        <v>0.12227652620160399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>3</v>
@@ -1582,14 +1838,20 @@
       <c r="N29">
         <v>0</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.89629616381149002</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0.93616338958685197</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>4</v>
@@ -1621,14 +1883,20 @@
       <c r="N30">
         <v>0.35214729999505001</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.97572958606649096</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.53117797695262403</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>0.97592908847318705</v>
+      </c>
+      <c r="T30">
+        <v>0.54107299341144399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>5</v>
@@ -1660,14 +1928,20 @@
       <c r="N31">
         <v>0.83657436796099405</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.95942299559336197</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.89113149317912099</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>0.95788858762875795</v>
+      </c>
+      <c r="T31">
+        <v>0.88918196343120304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>7</v>
@@ -1705,14 +1979,20 @@
       <c r="N32">
         <v>0.76464454010145899</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.956593592469829</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.896963588832843</v>
       </c>
-    </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>0.95659185543493996</v>
+      </c>
+      <c r="T32">
+        <v>0.89245869677932199</v>
+      </c>
+    </row>
+    <row r="33" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L33">
         <v>30</v>
       </c>
@@ -1722,8 +2002,14 @@
       <c r="N33">
         <v>0.19744853580748001</v>
       </c>
-    </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>0.98191291138687098</v>
+      </c>
+      <c r="T33">
+        <v>0.40352456907640799</v>
+      </c>
+    </row>
+    <row r="34" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>17</v>
       </c>
@@ -1732,12 +2018,39 @@
         <v>0.85218153674278907</v>
       </c>
       <c r="N34">
-        <f>AVERAGE(N3:N33)</f>
+        <f t="shared" ref="N34:T34" si="5">AVERAGE(N3:N33)</f>
         <v>0.26406287210616752</v>
       </c>
+      <c r="O34" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>0.88084659666198695</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0.42957103396952495</v>
+      </c>
+      <c r="R34" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="5"/>
+        <v>0.89481599501247322</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="5"/>
+        <v>0.40497170765604407</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="A3:A8"/>

--- a/save/新建 Microsoft Excel 工作表.xlsx
+++ b/save/新建 Microsoft Excel 工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\file\Project\Deng\code\segmentation\ViT\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7706342-9D2F-4DE8-A74A-CA5FF52CF7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5165DB09-FE5A-40FA-949E-79023887566B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="18120" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1692" windowWidth="23040" windowHeight="14556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Dice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,11 +108,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>norm40x6 4</t>
+    <t>norm40x6 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>norm40x6 2</t>
+    <t xml:space="preserve">norm40x6 4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnunet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,10 +188,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -485,7 +489,12 @@
     <col min="20" max="20" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -504,24 +513,25 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="Q2" s="4"/>
+      <c r="S2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="AH2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="V2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="5"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="AI2" s="4"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -545,7 +555,7 @@
       <c r="H3">
         <v>0.94818513813163896</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K3" t="s">
@@ -573,14 +583,20 @@
         <v>2.0043554852759601E-2</v>
       </c>
       <c r="V3">
+        <v>0.94060671089582204</v>
+      </c>
+      <c r="W3">
+        <v>0.536054255014912</v>
+      </c>
+      <c r="AH3">
         <v>0.82652248575786003</v>
       </c>
-      <c r="W3">
+      <c r="AI3">
         <v>4.3546432410596199E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -602,7 +618,7 @@
       <c r="H4">
         <v>0.94035364888259199</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="K4" t="s">
         <v>19</v>
       </c>
@@ -628,14 +644,20 @@
         <v>0.56434944476538895</v>
       </c>
       <c r="V4">
+        <v>0.95202129585003403</v>
+      </c>
+      <c r="W4">
+        <v>0.84205203408257601</v>
+      </c>
+      <c r="AH4">
         <v>0.90348466987820097</v>
       </c>
-      <c r="W4">
+      <c r="AI4">
         <v>0.44102992927075702</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -679,14 +701,20 @@
         <v>0</v>
       </c>
       <c r="V5">
+        <v>0.94628238680860499</v>
+      </c>
+      <c r="W5">
+        <v>0.64341957255342996</v>
+      </c>
+      <c r="AH5">
         <v>0.52304145374009403</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -730,14 +758,20 @@
         <v>6.4388045286258499E-3</v>
       </c>
       <c r="V6">
+        <v>0.95168957008756405</v>
+      </c>
+      <c r="W6">
+        <v>1.9758856960747799E-2</v>
+      </c>
+      <c r="AH6">
         <v>0.66917861331071904</v>
       </c>
-      <c r="W6">
+      <c r="AI6">
         <v>1.3833622646548201E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -781,14 +815,20 @@
         <v>0.45444319460067401</v>
       </c>
       <c r="V7">
+        <v>0.96251635605198504</v>
+      </c>
+      <c r="W7">
+        <v>0.82767032584073796</v>
+      </c>
+      <c r="AH7">
         <v>0.77863604957964805</v>
       </c>
-      <c r="W7">
+      <c r="AI7">
         <v>0.55751295336787499</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -838,14 +878,20 @@
         <v>0.75032674880295303</v>
       </c>
       <c r="V8">
+        <v>0.94730998017184398</v>
+      </c>
+      <c r="W8">
+        <v>0.91710929351425796</v>
+      </c>
+      <c r="AH8">
         <v>0.83001390410563303</v>
       </c>
-      <c r="W8">
+      <c r="AI8">
         <v>0.76966578510215899</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -891,14 +937,20 @@
         <v>0.13274149228492901</v>
       </c>
       <c r="V9">
+        <v>0.95302871338470596</v>
+      </c>
+      <c r="W9">
+        <v>0.148148148148148</v>
+      </c>
+      <c r="AH9">
         <v>0.73694911479120295</v>
       </c>
-      <c r="W9">
+      <c r="AI9">
         <v>8.2940251572326998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -942,14 +994,20 @@
         <v>9.0901712523334104E-3</v>
       </c>
       <c r="V10">
+        <v>0.96026348098922298</v>
+      </c>
+      <c r="W10">
+        <v>0.819992821249102</v>
+      </c>
+      <c r="AH10">
         <v>0.69329403783463805</v>
       </c>
-      <c r="W10">
+      <c r="AI10">
         <v>8.7669453689422795E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -993,14 +1051,20 @@
         <v>0.30568895456224598</v>
       </c>
       <c r="V11">
+        <v>0.94377610345640905</v>
+      </c>
+      <c r="W11">
+        <v>0.85021716163868999</v>
+      </c>
+      <c r="AH11">
         <v>0.70182471485461095</v>
       </c>
-      <c r="W11">
+      <c r="AI11">
         <v>0.37724447513812098</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1044,14 +1108,20 @@
         <v>0.86284031616469403</v>
       </c>
       <c r="V12">
+        <v>0.97286287663180004</v>
+      </c>
+      <c r="W12">
+        <v>0.90110723494615497</v>
+      </c>
+      <c r="AH12">
         <v>0.97655326795131703</v>
       </c>
-      <c r="W12">
+      <c r="AI12">
         <v>0.85938615274803698</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -1095,14 +1165,20 @@
         <v>0.65487627697526996</v>
       </c>
       <c r="V13">
+        <v>0.96262906575707596</v>
+      </c>
+      <c r="W13">
+        <v>0.925275092094753</v>
+      </c>
+      <c r="AH13">
         <v>0.91557677827262096</v>
       </c>
-      <c r="W13">
+      <c r="AI13">
         <v>0.65854047042939301</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -1152,14 +1228,20 @@
         <v>0.85364294844482302</v>
       </c>
       <c r="V14">
+        <v>0.96223797299088298</v>
+      </c>
+      <c r="W14">
+        <v>0.86695906432748504</v>
+      </c>
+      <c r="AH14">
         <v>0.81669916448498803</v>
       </c>
-      <c r="W14">
+      <c r="AI14">
         <v>0.85419248244527002</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1204,9 +1286,15 @@
       <c r="T15">
         <v>0.81129997158659595</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="V15">
+        <v>0.952856097874488</v>
+      </c>
+      <c r="W15">
+        <v>0.91816382647074202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1249,9 +1337,15 @@
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="V16">
+        <v>0.97042731150720996</v>
+      </c>
+      <c r="W16">
+        <v>0.434017595307917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1294,9 +1388,15 @@
       <c r="T17">
         <v>0.53415504653566304</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="V17">
+        <v>0.9498081420558</v>
+      </c>
+      <c r="W17">
+        <v>0.67456796058700996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -1339,9 +1439,15 @@
       <c r="T18">
         <v>0.30063360279659102</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="V18">
+        <v>0.89713346224419999</v>
+      </c>
+      <c r="W18">
+        <v>0.456950067476383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1384,9 +1490,15 @@
       <c r="T19">
         <v>4.5858227030518298E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="V19">
+        <v>0.97808243631953495</v>
+      </c>
+      <c r="W19">
+        <v>0.52732240437158395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -1435,9 +1547,15 @@
       <c r="T20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="V20">
+        <v>0.97999099411601198</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
@@ -1482,9 +1600,15 @@
       <c r="T21">
         <v>0.77688237866200205</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="V21">
+        <v>0.96689216374625497</v>
+      </c>
+      <c r="W21">
+        <v>0.81925322600148498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
@@ -1527,9 +1651,15 @@
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="V22">
+        <v>0.97620718749815605</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -1572,9 +1702,15 @@
       <c r="T23">
         <v>0.86368395337474702</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="V23">
+        <v>0.97227254521775297</v>
+      </c>
+      <c r="W23">
+        <v>0.868751152923814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1617,9 +1753,15 @@
       <c r="T24">
         <v>0.73741021849528898</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="V24">
+        <v>0.96407119455783596</v>
+      </c>
+      <c r="W24">
+        <v>0.74929609809892594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -1662,9 +1804,15 @@
       <c r="T25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="V25">
+        <v>0.98515991959551497</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -1713,9 +1861,15 @@
       <c r="T26">
         <v>0.22349377314035601</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="V26">
+        <v>0.97724573060335396</v>
+      </c>
+      <c r="W26">
+        <v>0.47779561262707299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
@@ -1760,9 +1914,15 @@
       <c r="T27">
         <v>0.797709109580925</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="V27">
+        <v>0.95572938944344799</v>
+      </c>
+      <c r="W27">
+        <v>0.83480403748739795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
@@ -1805,9 +1965,15 @@
       <c r="T28">
         <v>0.12227652620160399</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="V28">
+        <v>0.97033348763915095</v>
+      </c>
+      <c r="W28">
+        <v>0.62524468444144399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1850,9 +2016,15 @@
       <c r="T29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="V29">
+        <v>0.96971464100174298</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -1895,9 +2067,15 @@
       <c r="T30">
         <v>0.54107299341144399</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="V30">
+        <v>0.97426181569742398</v>
+      </c>
+      <c r="W30">
+        <v>0.70351600864270203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -1940,9 +2118,15 @@
       <c r="T31">
         <v>0.88918196343120304</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="V31">
+        <v>0.90378770760016003</v>
+      </c>
+      <c r="W31">
+        <v>0.87664110935930295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -1991,8 +2175,14 @@
       <c r="T32">
         <v>0.89245869677932199</v>
       </c>
-    </row>
-    <row r="33" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>0.95135934095040098</v>
+      </c>
+      <c r="W32">
+        <v>0.911127265520426</v>
+      </c>
+    </row>
+    <row r="33" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L33">
         <v>30</v>
       </c>
@@ -2002,14 +2192,26 @@
       <c r="N33">
         <v>0.19744853580748001</v>
       </c>
+      <c r="P33">
+        <v>0.92532199999999998</v>
+      </c>
+      <c r="Q33">
+        <v>0.41042450000000003</v>
+      </c>
       <c r="S33">
         <v>0.98191291138687098</v>
       </c>
       <c r="T33">
         <v>0.40352456907640799</v>
       </c>
-    </row>
-    <row r="34" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>0.98033553515471294</v>
+      </c>
+      <c r="W33">
+        <v>0.77674168822926304</v>
+      </c>
+    </row>
+    <row r="34" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>17</v>
       </c>
@@ -2018,39 +2220,48 @@
         <v>0.85218153674278907</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:T34" si="5">AVERAGE(N3:N33)</f>
+        <f t="shared" ref="N34:Z34" si="5">AVERAGE(N3:N33)</f>
         <v>0.26406287210616752</v>
-      </c>
-      <c r="O34" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="P34">
         <f t="shared" si="5"/>
-        <v>0.88084659666198695</v>
+        <v>0.8822812870922454</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="5"/>
-        <v>0.42957103396952495</v>
-      </c>
-      <c r="R34" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Q26:Q28,Q30:Q32,Q23:Q24,Q21,Q3:Q19)</f>
+        <v>0.49565888534945174</v>
       </c>
       <c r="S34">
         <f t="shared" si="5"/>
         <v>0.89481599501247322</v>
       </c>
       <c r="T34">
+        <f>AVERAGE(T26:T28,T30:T32,T23:T24,T21,T3:T19)</f>
+        <v>0.46733070647157526</v>
+      </c>
+      <c r="V34">
         <f t="shared" si="5"/>
-        <v>0.40497170765604407</v>
+        <v>0.95906108438384186</v>
+      </c>
+      <c r="W34">
+        <f>AVERAGE(W26:W28,W30:W32,W23:W24,W21,W3:W19)</f>
+        <v>0.69904672729566164</v>
+      </c>
+      <c r="AH34">
+        <f>AVERAGE(AH3:AH33)</f>
+        <v>0.78098118788012771</v>
+      </c>
+      <c r="AI34">
+        <f>AVERAGE(AI3:AI33)</f>
+        <v>0.38888829170833555</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="A3:A8"/>
